--- a/Application/JustR/DriverReports Route (03 Oct 2016).xlsx
+++ b/Application/JustR/DriverReports Route (03 Oct 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="171">
   <si>
     <t>Doorstep Chef Driver Sheet  Week: 9 - 03 Oct 2016</t>
   </si>
@@ -121,12 +121,6 @@
     <t>0283746574</t>
   </si>
   <si>
-    <t>Afro Jack</t>
-  </si>
-  <si>
-    <t>0324487569</t>
-  </si>
-  <si>
     <t>Keanu Arendze</t>
   </si>
   <si>
@@ -250,6 +244,36 @@
     <t>0231153489</t>
   </si>
   <si>
+    <t>Luntu Arendze</t>
+  </si>
+  <si>
+    <t>Edward  Cullen</t>
+  </si>
+  <si>
+    <t>0786663535</t>
+  </si>
+  <si>
+    <t>Alice Cullen</t>
+  </si>
+  <si>
+    <t>0786662772</t>
+  </si>
+  <si>
+    <t>Stefan Salvatore</t>
+  </si>
+  <si>
+    <t>0873737373</t>
+  </si>
+  <si>
+    <t>Damon Salvatore</t>
+  </si>
+  <si>
+    <t>0782282828</t>
+  </si>
+  <si>
+    <t>Fri Oct 2016 10:14:21</t>
+  </si>
+  <si>
     <t>Driver: Michael - 012 345 6789</t>
   </si>
   <si>
@@ -289,15 +313,6 @@
     <t>White street 28</t>
   </si>
   <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>0111112222</t>
-  </si>
-  <si>
-    <t>Hootville 34</t>
-  </si>
-  <si>
     <t>Lone Ranger</t>
   </si>
   <si>
@@ -397,19 +412,22 @@
     <t>Griffindor common room, Hogwarts School of Witchcraft and Wizardry</t>
   </si>
   <si>
+    <t>76 Ping Avenue</t>
+  </si>
+  <si>
     <t>Driver: Keanu - 987 654 3210</t>
   </si>
   <si>
     <t>Route: 2</t>
   </si>
   <si>
-    <t>Indianah Jones</t>
-  </si>
-  <si>
-    <t>0987878765</t>
-  </si>
-  <si>
-    <t>Tree street 29</t>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>0645554478</t>
+  </si>
+  <si>
+    <t>55 Volstruis Avenue 9986</t>
   </si>
   <si>
     <t>Rita Ora</t>
@@ -506,6 +524,9 @@
   </si>
   <si>
     <t>Knock Loud.</t>
+  </si>
+  <si>
+    <t>Fri Oct 2016 10:14:22</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="754">
+  <cellXfs count="812">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1611,21 +1632,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
@@ -1897,6 +1903,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
@@ -1917,6 +2013,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2073,21 +2172,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
@@ -2194,6 +2278,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
@@ -2229,6 +2328,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2466,6 +2568,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -2911,7 +3016,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s" s="132">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s" s="133">
         <v>1</v>
@@ -2943,10 +3048,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="142">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s" s="143">
         <v>37</v>
-      </c>
-      <c r="B14" t="s" s="143">
-        <v>16</v>
       </c>
       <c r="C14" t="s" s="144">
         <v>1</v>
@@ -3646,39 +3751,220 @@
         <v>76</v>
       </c>
       <c r="B34" t="s" s="363">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s" s="364">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s" s="365">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s" s="366">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s" s="367">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s" s="368">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s" s="369">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s" s="370">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s" s="371">
+        <v>18</v>
+      </c>
+      <c r="K34" t="s" s="372">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="373">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s" s="374">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s" s="375">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s" s="376">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s" s="377">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s" s="378">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s" s="379">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s" s="380">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s" s="381">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s" s="382">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s" s="383">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="384">
         <v>77</v>
       </c>
-      <c r="C34" t="s" s="364">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s" s="365">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s" s="366">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s" s="367">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s" s="368">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s" s="369">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s" s="370">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s" s="371">
-        <v>18</v>
-      </c>
-      <c r="K34" t="s" s="372">
-        <v>18</v>
+      <c r="B36" t="s" s="385">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s" s="386">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s" s="387">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s" s="388">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s" s="389">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s" s="390">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s" s="391">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s" s="392">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s" s="393">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s" s="394">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="395">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s" s="396">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s" s="397">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s" s="398">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s" s="399">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s" s="400">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s" s="401">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s" s="402">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s" s="403">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s" s="404">
+        <v>18</v>
+      </c>
+      <c r="K37" t="s" s="405">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="406">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s" s="407">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s" s="408">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s" s="409">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s" s="410">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s" s="411">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s" s="412">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s" s="413">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s" s="414">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s" s="415">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s" s="416">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="417">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s" s="418">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s" s="419">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s" s="420">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s" s="421">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s" s="422">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s" s="423">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s" s="424">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s" s="425">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s" s="426">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s" s="427">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="428">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A41:K41"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3706,702 +3992,708 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="373">
+      <c r="A1" t="s" s="429">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="374">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="375">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="376">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="377">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="378">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="379">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="380">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s" s="381">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="382">
-        <v>78</v>
-      </c>
-      <c r="K1" t="s" s="383">
-        <v>79</v>
+      <c r="B1" t="s" s="430">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="431">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="432">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="433">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="434">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="435">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="436">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s" s="437">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="438">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s" s="439">
+        <v>87</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="384">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="385">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="386">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="387">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="388">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="389">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="390">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="391">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="392">
+      <c r="A2" t="s" s="440">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="441">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="442">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="443">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="444">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="445">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="446">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="447">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="448">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="393">
+      <c r="A3" t="s" s="449">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="394">
+      <c r="B3" t="s" s="450">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="395">
+      <c r="C3" t="s" s="451">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="396">
+      <c r="D3" t="s" s="452">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="397">
+      <c r="E3" t="s" s="453">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="398">
+      <c r="F3" t="s" s="454">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="399">
+      <c r="G3" t="s" s="455">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="400">
+      <c r="H3" t="s" s="456">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="401">
+      <c r="I3" t="s" s="457">
         <v>12</v>
       </c>
-      <c r="J3" t="s" s="402">
+      <c r="J3" t="s" s="458">
         <v>13</v>
       </c>
-      <c r="K3" t="s" s="403">
+      <c r="K3" t="s" s="459">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="404">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s" s="405">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s" s="406">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="407">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="408">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="409">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="410">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="411">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="412">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="413">
-        <v>82</v>
-      </c>
-      <c r="K4" t="s" s="414">
+      <c r="A4" t="s" s="460">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s" s="461">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s" s="462">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="463">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="464">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="465">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="466">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="467">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="468">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="469">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="470">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="415">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s" s="416">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s" s="417">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="418">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="419">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="420">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="421">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="422">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="423">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="424">
+      <c r="A5" t="s" s="471">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s" s="472">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s" s="473">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="474">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="475">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="476">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="477">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="478">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="479">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="480">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s" s="481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="482">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s" s="483">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="484">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="485">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="486">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="487">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="488">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="489">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="490">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="491">
+        <v>95</v>
+      </c>
+      <c r="K6" t="s" s="492">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="493">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s" s="494">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="495">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="496">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="497">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="498">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="499">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="500">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="501">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="502">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s" s="503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="504">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s" s="505">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s" s="506">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="507">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="508">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="509">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="510">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="511">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="512">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="513">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s" s="514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="515">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s" s="516">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s" s="517">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="518">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="519">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="520">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="521">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="522">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="523">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s" s="524">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s" s="525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="526">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s" s="527">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s" s="528">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="529">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="530">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="531">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="532">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="533">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s" s="534">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s" s="535">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s" s="536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="537">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s" s="538">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s" s="539">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="540">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="541">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="542">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="543">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="544">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s" s="545">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s" s="546">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s" s="547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="548">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s" s="549">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s" s="550">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="551">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="552">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="553">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="554">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="555">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s" s="556">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s" s="557">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s" s="558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="559">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s" s="560">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s" s="561">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="562">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="563">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="564">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s" s="565">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s" s="566">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s" s="567">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s" s="568">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s" s="569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="570">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s" s="571">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s" s="572">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="573">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="574">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s" s="575">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s" s="576">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s" s="577">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s" s="578">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s" s="579">
+        <v>116</v>
+      </c>
+      <c r="K14" t="s" s="580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="581">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s" s="582">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s" s="583">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="584">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s" s="585">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="586">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s" s="587">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s" s="588">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s" s="589">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s" s="590">
+        <v>119</v>
+      </c>
+      <c r="K15" t="s" s="591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="592">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s" s="593">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s" s="594">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="595">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s" s="596">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="597">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s" s="598">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s" s="599">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s" s="600">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s" s="601">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s" s="602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="603">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s" s="604">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s" s="605">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s" s="606">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s" s="607">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s" s="608">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s" s="609">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s" s="610">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s" s="611">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s" s="612">
+        <v>125</v>
+      </c>
+      <c r="K17" t="s" s="613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="614">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s" s="615">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s" s="616">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s" s="617">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s" s="618">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s" s="619">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s" s="620">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s" s="621">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s" s="622">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s" s="623">
+        <v>128</v>
+      </c>
+      <c r="K18" t="s" s="624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="625">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s" s="626">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s" s="627">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="628">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s" s="629">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s" s="630">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s" s="631">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s" s="632">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s" s="633">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s" s="634">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s" s="635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="636">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="637">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s" s="638">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s" s="639">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s" s="640">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s" s="641">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s" s="642">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s" s="643">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s" s="644">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s" s="645">
+        <v>132</v>
+      </c>
+      <c r="K20" t="s" s="646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="647">
         <v>85</v>
-      </c>
-      <c r="K5" t="s" s="425">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="426">
-        <v>86</v>
-      </c>
-      <c r="B6" t="s" s="427">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="428">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="429">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="430">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="431">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="432">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="433">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="434">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="435">
-        <v>87</v>
-      </c>
-      <c r="K6" t="s" s="436">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="437">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s" s="438">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s" s="439">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="440">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="441">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="442">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="443">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="444">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="445">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="446">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s" s="447">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="448">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s" s="449">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s" s="450">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="451">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="452">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="453">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="454">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="455">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="456">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s" s="457">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s" s="458">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="459">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s" s="460">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s" s="461">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="462">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="463">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="464">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="465">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="466">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s" s="467">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s" s="468">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s" s="469">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="470">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s" s="471">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s" s="472">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="473">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s" s="474">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s" s="475">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s" s="476">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s" s="477">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s" s="478">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s" s="479">
-        <v>99</v>
-      </c>
-      <c r="K10" t="s" s="480">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="481">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s" s="482">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s" s="483">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="484">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s" s="485">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s" s="486">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s" s="487">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s" s="488">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s" s="489">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s" s="490">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s" s="491">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="492">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s" s="493">
-        <v>104</v>
-      </c>
-      <c r="C12" t="s" s="494">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="495">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s" s="496">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s" s="497">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s" s="498">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s" s="499">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s" s="500">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s" s="501">
-        <v>105</v>
-      </c>
-      <c r="K12" t="s" s="502">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="503">
-        <v>106</v>
-      </c>
-      <c r="B13" t="s" s="504">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s" s="505">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s" s="506">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s" s="507">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s" s="508">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s" s="509">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s" s="510">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s" s="511">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s" s="512">
-        <v>108</v>
-      </c>
-      <c r="K13" t="s" s="513">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="514">
-        <v>103</v>
-      </c>
-      <c r="B14" t="s" s="515">
-        <v>104</v>
-      </c>
-      <c r="C14" t="s" s="516">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s" s="517">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s" s="518">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s" s="519">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s" s="520">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s" s="521">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s" s="522">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s" s="523">
-        <v>105</v>
-      </c>
-      <c r="K14" t="s" s="524">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="525">
-        <v>109</v>
-      </c>
-      <c r="B15" t="s" s="526">
-        <v>110</v>
-      </c>
-      <c r="C15" t="s" s="527">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s" s="528">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s" s="529">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s" s="530">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s" s="531">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s" s="532">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s" s="533">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s" s="534">
-        <v>111</v>
-      </c>
-      <c r="K15" t="s" s="535">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="536">
-        <v>112</v>
-      </c>
-      <c r="B16" t="s" s="537">
-        <v>113</v>
-      </c>
-      <c r="C16" t="s" s="538">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s" s="539">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s" s="540">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s" s="541">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s" s="542">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s" s="543">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s" s="544">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s" s="545">
-        <v>114</v>
-      </c>
-      <c r="K16" t="s" s="546">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="547">
-        <v>115</v>
-      </c>
-      <c r="B17" t="s" s="548">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s" s="549">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s" s="550">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s" s="551">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s" s="552">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s" s="553">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s" s="554">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s" s="555">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s" s="556">
-        <v>117</v>
-      </c>
-      <c r="K17" t="s" s="557">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="558">
-        <v>118</v>
-      </c>
-      <c r="B18" t="s" s="559">
-        <v>119</v>
-      </c>
-      <c r="C18" t="s" s="560">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s" s="561">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s" s="562">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s" s="563">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s" s="564">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s" s="565">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s" s="566">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s" s="567">
-        <v>120</v>
-      </c>
-      <c r="K18" t="s" s="568">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="569">
-        <v>121</v>
-      </c>
-      <c r="B19" t="s" s="570">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s" s="571">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s" s="572">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s" s="573">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s" s="574">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s" s="575">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s" s="576">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s" s="577">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s" s="578">
-        <v>123</v>
-      </c>
-      <c r="K19" t="s" s="579">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="580">
-        <v>124</v>
-      </c>
-      <c r="B20" t="s" s="581">
-        <v>125</v>
-      </c>
-      <c r="C20" t="s" s="582">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s" s="583">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s" s="584">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s" s="585">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s" s="586">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s" s="587">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s" s="588">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s" s="589">
-        <v>126</v>
-      </c>
-      <c r="K20" t="s" s="590">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A22:K22"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4429,527 +4721,533 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="591">
+      <c r="A1" t="s" s="648">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="592">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="593">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="594">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="595">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="596">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="597">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="598">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s" s="599">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s" s="600">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s" s="601">
-        <v>128</v>
+      <c r="B1" t="s" s="649">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="650">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="651">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="652">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="653">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="654">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="655">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s" s="656">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="657">
+        <v>133</v>
+      </c>
+      <c r="K1" t="s" s="658">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="602">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="603">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="604">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="605">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="606">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="607">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="608">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="609">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="610">
+      <c r="A2" t="s" s="659">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="660">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="661">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="662">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="663">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="664">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="665">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="666">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="667">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="611">
+      <c r="A3" t="s" s="668">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="612">
+      <c r="B3" t="s" s="669">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="613">
+      <c r="C3" t="s" s="670">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="614">
+      <c r="D3" t="s" s="671">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="615">
+      <c r="E3" t="s" s="672">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="616">
+      <c r="F3" t="s" s="673">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="617">
+      <c r="G3" t="s" s="674">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="618">
+      <c r="H3" t="s" s="675">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="619">
+      <c r="I3" t="s" s="676">
         <v>12</v>
       </c>
-      <c r="J3" t="s" s="620">
+      <c r="J3" t="s" s="677">
         <v>13</v>
       </c>
-      <c r="K3" t="s" s="621">
+      <c r="K3" t="s" s="678">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="622">
-        <v>129</v>
-      </c>
-      <c r="B4" t="s" s="623">
-        <v>130</v>
-      </c>
-      <c r="C4" t="s" s="624">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="625">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="626">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="627">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="628">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="629">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="630">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="631">
-        <v>131</v>
-      </c>
-      <c r="K4" t="s" s="632">
+      <c r="A4" t="s" s="679">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s" s="680">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s" s="681">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="682">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="683">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="684">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="685">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="686">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="687">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s" s="688">
+        <v>137</v>
+      </c>
+      <c r="K4" t="s" s="689">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="633">
-        <v>132</v>
-      </c>
-      <c r="B5" t="s" s="634">
-        <v>133</v>
-      </c>
-      <c r="C5" t="s" s="635">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="636">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="637">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="638">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="639">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="640">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s" s="641">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="642">
-        <v>134</v>
-      </c>
-      <c r="K5" t="s" s="643">
+      <c r="A5" t="s" s="690">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s" s="691">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s" s="692">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="693">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="694">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="695">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="696">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="697">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="698">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="699">
+        <v>140</v>
+      </c>
+      <c r="K5" t="s" s="700">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="644">
-        <v>135</v>
-      </c>
-      <c r="B6" t="s" s="645">
-        <v>136</v>
-      </c>
-      <c r="C6" t="s" s="646">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="647">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="648">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="649">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="650">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="651">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="652">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="653">
-        <v>137</v>
-      </c>
-      <c r="K6" t="s" s="654">
+      <c r="A6" t="s" s="701">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s" s="702">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s" s="703">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="704">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="705">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="706">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="707">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="708">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="709">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="710">
+        <v>143</v>
+      </c>
+      <c r="K6" t="s" s="711">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="655">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s" s="656">
-        <v>139</v>
-      </c>
-      <c r="C7" t="s" s="657">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="658">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="659">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="660">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="661">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="662">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="663">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="664">
-        <v>140</v>
-      </c>
-      <c r="K7" t="s" s="665">
+      <c r="A7" t="s" s="712">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s" s="713">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s" s="714">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="715">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="716">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="717">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="718">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="719">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="720">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="721">
+        <v>146</v>
+      </c>
+      <c r="K7" t="s" s="722">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="666">
-        <v>141</v>
-      </c>
-      <c r="B8" t="s" s="667">
-        <v>142</v>
-      </c>
-      <c r="C8" t="s" s="668">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="669">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="670">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="671">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="672">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="673">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="674">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s" s="675">
-        <v>143</v>
-      </c>
-      <c r="K8" t="s" s="676">
+      <c r="A8" t="s" s="723">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s" s="724">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s" s="725">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="726">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="727">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="728">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="729">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="730">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="731">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s" s="732">
+        <v>149</v>
+      </c>
+      <c r="K8" t="s" s="733">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="677">
-        <v>144</v>
-      </c>
-      <c r="B9" t="s" s="678">
-        <v>145</v>
-      </c>
-      <c r="C9" t="s" s="679">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="680">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="681">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="682">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="683">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="684">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s" s="685">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s" s="686">
-        <v>146</v>
-      </c>
-      <c r="K9" t="s" s="687">
+      <c r="A9" t="s" s="734">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s" s="735">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s" s="736">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="737">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="738">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="739">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="740">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="741">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="742">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s" s="743">
+        <v>152</v>
+      </c>
+      <c r="K9" t="s" s="744">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="688">
-        <v>147</v>
-      </c>
-      <c r="B10" t="s" s="689">
-        <v>148</v>
-      </c>
-      <c r="C10" t="s" s="690">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="691">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s" s="692">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s" s="693">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s" s="694">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s" s="695">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s" s="696">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s" s="697">
-        <v>149</v>
-      </c>
-      <c r="K10" t="s" s="698">
+      <c r="A10" t="s" s="745">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s" s="746">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s" s="747">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="748">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="749">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="750">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="751">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="752">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s" s="753">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s" s="754">
+        <v>155</v>
+      </c>
+      <c r="K10" t="s" s="755">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="699">
-        <v>150</v>
-      </c>
-      <c r="B11" t="s" s="700">
-        <v>151</v>
-      </c>
-      <c r="C11" t="s" s="701">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="702">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s" s="703">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s" s="704">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s" s="705">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s" s="706">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s" s="707">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s" s="708">
-        <v>152</v>
-      </c>
-      <c r="K11" t="s" s="709">
+      <c r="A11" t="s" s="756">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="757">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s" s="758">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="759">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="760">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="761">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="762">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="763">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s" s="764">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s" s="765">
+        <v>158</v>
+      </c>
+      <c r="K11" t="s" s="766">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="710">
-        <v>153</v>
-      </c>
-      <c r="B12" t="s" s="711">
-        <v>154</v>
-      </c>
-      <c r="C12" t="s" s="712">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="713">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s" s="714">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s" s="715">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s" s="716">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s" s="717">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s" s="718">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s" s="719">
-        <v>155</v>
-      </c>
-      <c r="K12" t="s" s="720">
+      <c r="A12" t="s" s="767">
+        <v>159</v>
+      </c>
+      <c r="B12" t="s" s="768">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s" s="769">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="770">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="771">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="772">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="773">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="774">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s" s="775">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s" s="776">
+        <v>161</v>
+      </c>
+      <c r="K12" t="s" s="777">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="721">
-        <v>156</v>
-      </c>
-      <c r="B13" t="s" s="722">
-        <v>157</v>
-      </c>
-      <c r="C13" t="s" s="723">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s" s="724">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s" s="725">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s" s="726">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s" s="727">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s" s="728">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s" s="729">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s" s="730">
-        <v>158</v>
-      </c>
-      <c r="K13" t="s" s="731">
+      <c r="A13" t="s" s="778">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s" s="779">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s" s="780">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="781">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="782">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="783">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s" s="784">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s" s="785">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s" s="786">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s" s="787">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s" s="788">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="732">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s" s="733">
-        <v>160</v>
-      </c>
-      <c r="C14" t="s" s="734">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s" s="735">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s" s="736">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s" s="737">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s" s="738">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s" s="739">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s" s="740">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s" s="741">
-        <v>161</v>
-      </c>
-      <c r="K14" t="s" s="742">
+      <c r="A14" t="s" s="789">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s" s="790">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s" s="791">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="792">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="793">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s" s="794">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s" s="795">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s" s="796">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s" s="797">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s" s="798">
+        <v>167</v>
+      </c>
+      <c r="K14" t="s" s="799">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="743">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s" s="744">
+      <c r="A15" t="s" s="800">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s" s="801">
         <v>16</v>
       </c>
-      <c r="C15" t="s" s="745">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s" s="746">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s" s="747">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s" s="748">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s" s="749">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s" s="750">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s" s="751">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s" s="752">
-        <v>162</v>
-      </c>
-      <c r="K15" t="s" s="753">
-        <v>163</v>
+      <c r="C15" t="s" s="802">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="803">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s" s="804">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="805">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s" s="806">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s" s="807">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s" s="808">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s" s="809">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s" s="810">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="811">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A17:K17"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
